--- a/Data/Assumption/Zone_Limit/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneA1.xlsx
@@ -92,25 +92,25 @@
     <t>BIO_IGCC_CHP</t>
   </si>
   <si>
-    <t>COA_CHP_BP</t>
+    <t>ProcessName</t>
   </si>
   <si>
-    <t>COA_CHP_EC</t>
+    <t>COA_CHP_BP_DH</t>
   </si>
   <si>
-    <t>GAS_CHP_BP</t>
+    <t>COA_CHP_EC_DH</t>
   </si>
   <si>
-    <t>GAS_CHP_EC</t>
+    <t>GAS_CHP_BP_DH</t>
   </si>
   <si>
-    <t>COA_CHP_BP_CCS</t>
+    <t>GAS_CHP_EC_DH</t>
   </si>
   <si>
-    <t>GAS_CHP_EC_CCS</t>
+    <t>COA_CHP_EC_CCS_DH</t>
   </si>
   <si>
-    <t>ProcessName</t>
+    <t>GAS_CHP_EC_CCS_DH</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,7 +522,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4">
@@ -1518,7 +1518,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>0</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>0</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>0</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>0</v>
@@ -1814,7 +1814,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="A29" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1827,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4">
@@ -2809,7 +2809,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>0</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>0</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>0</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>0</v>

--- a/Data/Assumption/Zone_Limit/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneA1.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+      <selection activeCell="C14" sqref="C14:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1076,34 +1076,34 @@
         <v>1000</v>
       </c>
       <c r="D14" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M14" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1117,34 +1117,34 @@
         <v>1000</v>
       </c>
       <c r="D15" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M15" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1158,34 +1158,34 @@
         <v>1000</v>
       </c>
       <c r="D16" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M16" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1199,34 +1199,34 @@
         <v>1000</v>
       </c>
       <c r="D17" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M17" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1240,34 +1240,34 @@
         <v>1000</v>
       </c>
       <c r="D18" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M18" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1281,34 +1281,34 @@
         <v>1000</v>
       </c>
       <c r="D19" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M19" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1322,34 +1322,34 @@
         <v>1000</v>
       </c>
       <c r="D20" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M20" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1363,34 +1363,34 @@
         <v>1000</v>
       </c>
       <c r="D21" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="6">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="6">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="J21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="K21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M21" s="6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">

--- a/Data/Assumption/Zone_Limit/ZoneA1.xlsx
+++ b/Data/Assumption/Zone_Limit/ZoneA1.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:M21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <v>4000</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
         <v>4000</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="6">
         <v>4000</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
         <v>4000</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6">
         <v>4000</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="6">
         <v>4000</v>
@@ -1729,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D30" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F30" s="6">
         <v>4000</v>
